--- a/doc/Tests/Tests_Mikael.Juillet.xlsx
+++ b/doc/Tests/Tests_Mikael.Juillet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clion\MA-20\Bataille-Navale.Meline.Juillet\doc\use case\use case exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clion_Exercises\Bataille navale\Bataille-Navale\doc\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FE3F05-188F-4F32-9ABC-8572FCD06B69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jouer à la bataille navale" sheetId="3" r:id="rId1"/>
@@ -18,17 +19,23 @@
     <sheet name="afficher les résultats" sheetId="5" r:id="rId4"/>
     <sheet name="afficher l'aide du jeux " sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="69">
   <si>
     <t>Identifiant + titre</t>
   </si>
@@ -214,12 +221,33 @@
   </si>
   <si>
     <t xml:space="preserve">Navale_Mikael.Juillet - Afficher l'aide du jeux </t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non </t>
+  </si>
+  <si>
+    <t>Moi sur l'ordinateur de travail (07.04.2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierre Juillet sur l'ordinateur de travail (08.04.2020)   </t>
+  </si>
+  <si>
+    <t>Tests :</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le programme affiche les résultats de toutes les partie pas seulment de la personne conecter </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -364,11 +392,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -401,16 +438,312 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -685,26 +1018,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="34.88671875" customWidth="1"/>
+    <col min="9" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -714,146 +1050,212 @@
       <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="E6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F10" s="10" t="s">
+      <c r="E8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
+  <conditionalFormatting sqref="E2:E8">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F8">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="27.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875"/>
+    <col min="9" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -863,62 +1265,64 @@
       <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="E3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="E4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>31</v>
       </c>
@@ -928,17 +1332,15 @@
       <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="E5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
@@ -948,47 +1350,126 @@
       <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F11" s="10" t="s">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
         <v>56</v>
       </c>
+      <c r="C21" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B21:C21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:E8">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F8">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="24.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875"/>
+    <col min="9" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -998,121 +1479,183 @@
       <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="E3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="E4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F10" s="10" t="s">
+    </row>
+    <row r="22" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E8">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F8">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875"/>
+    <col min="9" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -1122,28 +1665,34 @@
       <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -1153,80 +1702,136 @@
       <c r="C3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="11"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F10" s="10" t="s">
+    </row>
+    <row r="22" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="9" max="14" width="11.42578125" style="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="33.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875"/>
+    <col min="5" max="5" width="26.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875"/>
+    <col min="9" max="14" width="11.44140625" style="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -1236,83 +1841,136 @@
       <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="11"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="F12" s="10" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>